--- a/doc/Projektmanagement/Arbeitspakete.xlsx
+++ b/doc/Projektmanagement/Arbeitspakete.xlsx
@@ -9,17 +9,34 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25125" windowHeight="12195"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25125" windowHeight="12195" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Beispiel" sheetId="4" r:id="rId1"/>
     <sheet name="1-1-01" sheetId="1" r:id="rId2"/>
     <sheet name="2-1-01" sheetId="2" r:id="rId3"/>
     <sheet name="2-1-02" sheetId="6" r:id="rId4"/>
-    <sheet name="Tabelle2" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="2-1-03" sheetId="7" r:id="rId5"/>
+    <sheet name="2-2-01" sheetId="13" r:id="rId6"/>
+    <sheet name="2-2-02" sheetId="14" r:id="rId7"/>
+    <sheet name="2-3-01" sheetId="15" r:id="rId8"/>
+    <sheet name="2-4-01" sheetId="10" r:id="rId9"/>
+    <sheet name="2-4-02" sheetId="11" r:id="rId10"/>
+    <sheet name="2-4-03" sheetId="12" r:id="rId11"/>
+    <sheet name="2-5-01" sheetId="18" r:id="rId12"/>
+    <sheet name="2-5-02" sheetId="19" r:id="rId13"/>
+    <sheet name="3-1-01" sheetId="8" r:id="rId14"/>
+    <sheet name="4-1-01" sheetId="9" r:id="rId15"/>
+    <sheet name="Tabelle2" sheetId="3" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="A" localSheetId="3">'2-1-02'!$1:$1048576</definedName>
+    <definedName name="A" localSheetId="4">'2-1-03'!$1:$1048576</definedName>
+    <definedName name="A" localSheetId="5">'2-2-01'!$1:$1048576</definedName>
+    <definedName name="A" localSheetId="6">'2-2-02'!$1:$1048576</definedName>
+    <definedName name="A" localSheetId="7">'2-3-01'!$1:$1048576</definedName>
+    <definedName name="A" localSheetId="11">'2-5-01'!$1:$1048576</definedName>
+    <definedName name="A" localSheetId="12">'2-5-02'!$1:$1048576</definedName>
     <definedName name="A">'2-1-01'!$1:$1048576</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -32,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="153">
   <si>
     <t>Arbeitspaket Beschreibung</t>
   </si>
@@ -218,6 +235,279 @@
   </si>
   <si>
     <t>IPC-Server implementiert</t>
+  </si>
+  <si>
+    <t>IPC-Server kann angesprochen werden</t>
+  </si>
+  <si>
+    <t>implementieren des IPC-Servers</t>
+  </si>
+  <si>
+    <t>IPC-Server ohne Fehler benutzt werden</t>
+  </si>
+  <si>
+    <t>AP-Name: WebSocket</t>
+  </si>
+  <si>
+    <t>Host kann mit dem WebSocket Server kommunizieren</t>
+  </si>
+  <si>
+    <t>implementieren des WebSocket Clients</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-1-03</t>
+  </si>
+  <si>
+    <t>WebSocket implementiert</t>
+  </si>
+  <si>
+    <t>Adrian Kurth</t>
+  </si>
+  <si>
+    <t>AP-Name: Testen</t>
+  </si>
+  <si>
+    <t>Entwicklung abgeschlossen</t>
+  </si>
+  <si>
+    <t>Programm "bugfrei"</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>50 h</t>
+  </si>
+  <si>
+    <t>Alle Programmteile sind fertig</t>
+  </si>
+  <si>
+    <t>Programm hat keine größeren Bugs</t>
+  </si>
+  <si>
+    <t>gesamtes Team</t>
+  </si>
+  <si>
+    <t>Testen/Verbessern aller Programmteile</t>
+  </si>
+  <si>
+    <t>Anzahl im Projekt vorhandener Bugs</t>
+  </si>
+  <si>
+    <t>nicht genug Zeit</t>
+  </si>
+  <si>
+    <t>Testphase beendet</t>
+  </si>
+  <si>
+    <t>Projekt beendet</t>
+  </si>
+  <si>
+    <t>10 h</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Dokumentationen zusammenfassen</t>
+  </si>
+  <si>
+    <t>Dokumentation entspricht den Normen</t>
+  </si>
+  <si>
+    <t>AP-Nr: 4-1-01</t>
+  </si>
+  <si>
+    <t>AP-Nr: 3-1-01</t>
+  </si>
+  <si>
+    <t>Jesse Arff</t>
+  </si>
+  <si>
+    <t>Testen, weitere AP des Android App</t>
+  </si>
+  <si>
+    <t>Vollständigkeit der zu erreichenden Features</t>
+  </si>
+  <si>
+    <t>Durch die UI erreichbare Features</t>
+  </si>
+  <si>
+    <t>Planen und umsetzen des Userinterface für die Android App</t>
+  </si>
+  <si>
+    <t>Userinterface der Android App</t>
+  </si>
+  <si>
+    <t>130h</t>
+  </si>
+  <si>
+    <t>08.05.2018</t>
+  </si>
+  <si>
+    <t>29.03.2018</t>
+  </si>
+  <si>
+    <t>Jesse Nis Arff</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>AP-Name: Android-UI</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-4-01</t>
+  </si>
+  <si>
+    <t>Auswahl der Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Über die WebSocket Verbindung erreichbare Features </t>
+  </si>
+  <si>
+    <t>Einbinden einer WebSocket Library und erstellen einer Wrapper-Klasse für diese</t>
+  </si>
+  <si>
+    <t>Mögliche Verbindung zum WebSocket Server</t>
+  </si>
+  <si>
+    <t>150h</t>
+  </si>
+  <si>
+    <t>AP-Name: Android-WebSocket</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-4-02</t>
+  </si>
+  <si>
+    <t>Fehlende UI Elemente durch Android Version</t>
+  </si>
+  <si>
+    <t>Implementierung aller geforderten UI Elemente</t>
+  </si>
+  <si>
+    <t>Generierbare UI Elemente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Möglichkeit durch ein Programm ein spezifisches UI innerhalb der App zu generieren </t>
+  </si>
+  <si>
+    <t>Erstellen von spezifischen UI</t>
+  </si>
+  <si>
+    <t>WebSocket Verbindung und grundliegende UI</t>
+  </si>
+  <si>
+    <t>100h</t>
+  </si>
+  <si>
+    <t>Android UI und WebSocket</t>
+  </si>
+  <si>
+    <t>AP-Name: Android Custom UI</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-4-03</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-2-01</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>AP-Name: Datenbank</t>
+  </si>
+  <si>
+    <t>Datenbank eingerichtet</t>
+  </si>
+  <si>
+    <t>Datenbank eingerichtet und kann angesprochen werden</t>
+  </si>
+  <si>
+    <t>Server kann Datenbank ansprechen</t>
+  </si>
+  <si>
+    <t>Datenbank kann vom Server angesprochen und bearbeitet werden</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-2-02</t>
+  </si>
+  <si>
+    <t>AP-Name: WebSocket Server</t>
+  </si>
+  <si>
+    <t>WebSocket ist erreichbar</t>
+  </si>
+  <si>
+    <t>Host und App können mit dem WebSocket Server kommunizieren</t>
+  </si>
+  <si>
+    <t>WebSocket ermöglicht die Kommunikation von Host und App</t>
+  </si>
+  <si>
+    <t>WebSocket kann angesprochen werden</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-3-01</t>
+  </si>
+  <si>
+    <t>Beispielanwendung</t>
+  </si>
+  <si>
+    <t>AP-Name: UI</t>
+  </si>
+  <si>
+    <t>110h</t>
+  </si>
+  <si>
+    <t>User-Interface für die Beispielanwendung</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-5-01</t>
+  </si>
+  <si>
+    <t>Library</t>
+  </si>
+  <si>
+    <t>AP-Name: C#</t>
+  </si>
+  <si>
+    <t>C#-Library ist fertig</t>
+  </si>
+  <si>
+    <t>Das Beispielprogramm kann die Library ohne Probleme benutzen</t>
+  </si>
+  <si>
+    <t>C#-Library</t>
+  </si>
+  <si>
+    <t>Ausarbeiten/Programmieren der C#-Library</t>
+  </si>
+  <si>
+    <t>AP-Name: Java</t>
+  </si>
+  <si>
+    <t>Java-Library ist fertig</t>
+  </si>
+  <si>
+    <t>Java-Library</t>
+  </si>
+  <si>
+    <t>Ausarbeiten/Programmieren der Java-Library</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>30h</t>
+  </si>
+  <si>
+    <t>14h</t>
+  </si>
+  <si>
+    <t>12h</t>
   </si>
 </sst>
 </file>
@@ -309,7 +599,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -403,11 +693,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -423,17 +837,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -441,12 +845,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -461,9 +859,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -475,11 +870,110 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -796,6 +1290,1236 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="42"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="42"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A2:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>18</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D15" sqref="A1:D15"/>
     </sheetView>
@@ -809,806 +2533,188 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="A2" s="66" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="67" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="35"/>
+      <c r="D3" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="14">
+        <v>43255</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="14">
+        <v>43252</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="4" t="s">
+      <c r="B6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="14">
+        <v>43273</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="15">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="B8" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="B9" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="B11" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>20</v>
+      <c r="D14" s="29" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="18">
-        <v>43178</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="18">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="19">
-        <v>10</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>34</v>
+      <c r="D15" s="21" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="18">
-        <v>43199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="18">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="18">
-        <v>43230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="19">
-        <v>42</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" customWidth="1"/>
-    <col min="4" max="4" width="40.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="35"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="35"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="18">
-        <v>43199</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="18">
-        <v>43188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="18">
-        <v>43230</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="19">
-        <v>42</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>54</v>
-      </c>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1621,11 +2727,11 @@
     <mergeCell ref="B12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -1642,12 +2748,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1667,7 +2773,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1721,61 +2827,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1815,4 +2921,1681 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="26"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>42</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29"/>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>40</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/Projektmanagement/Arbeitspakete.xlsx
+++ b/doc/Projektmanagement/Arbeitspakete.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programmieren\Projekt_SS108\Projekt-SS18\doc\Projektmanagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse Arff\Documents\CodeRepos\Projekt-SS18\doc\Projektmanagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25125" windowHeight="12195" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25125" windowHeight="12195" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="Beispiel" sheetId="4" r:id="rId1"/>
@@ -25,9 +25,10 @@
     <sheet name="2-4-03" sheetId="12" r:id="rId11"/>
     <sheet name="2-5-01" sheetId="18" r:id="rId12"/>
     <sheet name="2-5-02" sheetId="19" r:id="rId13"/>
-    <sheet name="3-1-01" sheetId="8" r:id="rId14"/>
-    <sheet name="4-1-01" sheetId="9" r:id="rId15"/>
-    <sheet name="Tabelle2" sheetId="3" state="hidden" r:id="rId16"/>
+    <sheet name="2-5-03" sheetId="20" r:id="rId14"/>
+    <sheet name="3-1-01" sheetId="8" r:id="rId15"/>
+    <sheet name="4-1-01" sheetId="9" r:id="rId16"/>
+    <sheet name="Tabelle2" sheetId="3" state="hidden" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="A" localSheetId="3">'2-1-02'!$1:$1048576</definedName>
@@ -37,6 +38,7 @@
     <definedName name="A" localSheetId="7">'2-3-01'!$1:$1048576</definedName>
     <definedName name="A" localSheetId="11">'2-5-01'!$1:$1048576</definedName>
     <definedName name="A" localSheetId="12">'2-5-02'!$1:$1048576</definedName>
+    <definedName name="A" localSheetId="13">'2-5-03'!$1:$1048576</definedName>
     <definedName name="A">'2-1-01'!$1:$1048576</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="159">
   <si>
     <t>Arbeitspaket Beschreibung</t>
   </si>
@@ -508,6 +510,24 @@
   </si>
   <si>
     <t>12h</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-5-02</t>
+  </si>
+  <si>
+    <t>AP-Nr: 2-5-03</t>
+  </si>
+  <si>
+    <t>AP-Name: C++</t>
+  </si>
+  <si>
+    <t>C++-Library ist fertig</t>
+  </si>
+  <si>
+    <t>C++-Library</t>
+  </si>
+  <si>
+    <t>Ausarbeiten/Programmieren der C++-Library</t>
   </si>
 </sst>
 </file>
@@ -821,7 +841,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -882,20 +902,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -920,10 +927,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -935,30 +981,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -968,12 +993,10 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1303,12 +1326,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
@@ -1335,7 +1358,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="41" t="s">
+      <c r="D3" s="36" t="s">
         <v>24</v>
       </c>
       <c r="E3" s="27"/>
@@ -1356,89 +1379,89 @@
       <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="42"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="37"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -1458,13 +1481,13 @@
       <c r="A15" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="41" t="s">
         <v>34</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="47"/>
+      <c r="D15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1498,29 +1521,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="48" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="49" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -1585,61 +1608,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1701,15 +1724,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>119</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1718,12 +1741,12 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -1790,67 +1813,67 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="B14" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -1906,15 +1929,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>138</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1923,13 +1946,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -1938,7 +1961,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>139</v>
       </c>
       <c r="E3" s="26"/>
@@ -1999,61 +2022,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2103,7 +2126,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:D15"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2115,16 +2138,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>138</v>
+      <c r="A2" s="42" t="s">
+        <v>153</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>145</v>
@@ -2132,13 +2155,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -2147,7 +2170,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>139</v>
       </c>
       <c r="E3" s="26"/>
@@ -2208,61 +2231,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>152</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2311,8 +2334,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="A1:D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2324,171 +2347,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>89</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="A2" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
-        <v>52</v>
+      <c r="B3" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
-        <v>37</v>
+      <c r="D3" s="44" t="s">
+        <v>139</v>
       </c>
       <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>78</v>
+      <c r="B4" s="32" t="s">
+        <v>34</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>32</v>
       </c>
       <c r="D4" s="14">
-        <v>43234</v>
+        <v>43199</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>72</v>
+      <c r="B5" s="32" t="s">
+        <v>56</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="14">
-        <v>43234</v>
+        <v>43188</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="29" t="s">
-        <v>73</v>
+      <c r="B6" s="32" t="s">
+        <v>156</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="14">
-        <v>43252</v>
+        <v>43230</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="15">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="55" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="B13" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="29" t="s">
-        <v>81</v>
+      <c r="B14" s="32" t="s">
+        <v>37</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>74</v>
+      <c r="D14" s="32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="21" t="s">
@@ -2497,8 +2520,8 @@
       <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>78</v>
+      <c r="D15" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2518,9 +2541,9 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
@@ -2533,39 +2556,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>88</v>
+      <c r="A2" s="50" t="s">
+        <v>89</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="51" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>37</v>
       </c>
       <c r="E3" s="26"/>
@@ -2581,7 +2604,7 @@
         <v>32</v>
       </c>
       <c r="D4" s="14">
-        <v>43255</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -2589,13 +2612,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="14">
-        <v>43252</v>
+        <v>43234</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -2603,13 +2626,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="14">
-        <v>43273</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -2617,7 +2640,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="15">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="19"/>
@@ -2626,61 +2649,270 @@
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="B8" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="B9" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="B10" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="B11" s="55" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="B12" s="55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1"/>
+    <col min="3" max="3" width="32.85546875" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="66"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="26"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="26"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="14">
+        <v>43255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="14">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="14">
+        <v>43273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="15">
+        <v>21</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -2731,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -2748,12 +2980,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -2827,61 +3059,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -2940,16 +3172,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="58"/>
       <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="45" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="24" t="s">
@@ -2963,7 +3195,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="46" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3032,61 +3264,61 @@
       <c r="A8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -3160,15 +3392,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>58</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3177,13 +3409,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3192,7 +3424,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="26"/>
@@ -3253,61 +3485,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3369,15 +3601,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>59</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3386,13 +3618,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3462,61 +3694,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3578,15 +3810,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3595,13 +3827,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3610,7 +3842,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>47</v>
       </c>
       <c r="E3" s="26"/>
@@ -3671,61 +3903,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3787,15 +4019,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>120</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3804,13 +4036,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -3819,7 +4051,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="26"/>
@@ -3880,61 +4112,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>124</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -3996,15 +4228,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>127</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4013,13 +4245,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -4028,7 +4260,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>121</v>
       </c>
       <c r="E3" s="26"/>
@@ -4089,61 +4321,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -4205,15 +4437,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>133</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4222,13 +4454,13 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -4237,7 +4469,7 @@
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="44" t="s">
         <v>134</v>
       </c>
       <c r="E3" s="26"/>
@@ -4298,61 +4530,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -4414,15 +4646,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="42" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -4431,12 +4663,12 @@
       <c r="C2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="33" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="43" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="29" t="s">
@@ -4501,61 +4733,61 @@
       <c r="A8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
